--- a/public/payment_template_final.xlsx
+++ b/public/payment_template_final.xlsx
@@ -854,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,12 +874,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,7 +1448,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="O23" sqref="O23:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1551,311 +1545,311 @@
     </row>
     <row r="4" ht="15.6" spans="1:15">
       <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" ht="15.6" spans="1:15">
       <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" ht="15.6" spans="1:15">
       <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" ht="15.6" spans="1:15">
       <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" ht="15.6" spans="1:15">
       <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" ht="15.6" spans="1:15">
       <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" ht="15.6" spans="1:15">
       <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" ht="15.6" spans="1:15">
       <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" ht="15.6" spans="1:15">
       <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" ht="15.6" spans="1:15">
       <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" ht="15.6" spans="1:15">
       <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" ht="15.6" spans="1:15">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" ht="15.6" spans="1:15">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" ht="15.6" spans="1:15">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" ht="15.6" spans="1:15">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" ht="15.6" spans="1:15">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" ht="15.6" spans="1:17">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1864,132 +1858,132 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" ht="35" customHeight="1" spans="1:15">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" ht="35" customHeight="1" spans="1:15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" ht="35" customHeight="1" spans="1:15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" ht="35" customHeight="1" spans="1:15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
